--- a/xforms/xlsforms/baseline.xlsx
+++ b/xforms/xlsforms/baseline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="6345" tabRatio="427" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="6345" tabRatio="427"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="142">
   <si>
     <t>type</t>
   </si>
@@ -241,9 +241,6 @@
   </si>
   <si>
     <t>Data de nascimento</t>
-  </si>
-  <si>
-    <t>. &lt; today()</t>
   </si>
   <si>
     <t>select_one partial_date</t>
@@ -836,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1077,7 +1074,9 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
+      <c r="N7" s="12" t="b">
+        <v>1</v>
+      </c>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
@@ -1220,7 +1219,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>49</v>
@@ -1450,7 +1449,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="10" t="b">
@@ -1470,19 +1469,19 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>78</v>
-      </c>
       <c r="E19" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -1505,7 +1504,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1530,24 +1529,24 @@
         <v>70</v>
       </c>
       <c r="B21" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="13" t="s">
+      <c r="E21" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>83</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="J21" s="13" t="b">
         <f>TRUE()</f>
@@ -1564,17 +1563,17 @@
     </row>
     <row r="22" spans="1:18" ht="24">
       <c r="A22" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>88</v>
-      </c>
       <c r="C22" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -1587,7 +1586,7 @@
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
@@ -1600,24 +1599,24 @@
         <v>70</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="14" t="s">
+      <c r="E23" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J23" s="14" t="b">
         <f>TRUE()</f>
@@ -1634,19 +1633,19 @@
     </row>
     <row r="24" spans="1:18" ht="27.75" customHeight="1">
       <c r="A24" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="E24" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>100</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
@@ -1667,19 +1666,19 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="10" t="s">
+      <c r="E25" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>104</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -1698,21 +1697,21 @@
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
     </row>
-    <row r="26" spans="1:18" ht="24">
+    <row r="26" spans="1:18">
       <c r="A26" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>108</v>
-      </c>
       <c r="D26" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
@@ -1754,7 +1753,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1774,16 +1773,16 @@
         <v>68</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1791,84 +1790,84 @@
         <v>68</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>115</v>
-      </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>118</v>
-      </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="7">
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>124</v>
-      </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1880,7 +1879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1895,30 +1894,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
         <v>128</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>129</v>
       </c>
-      <c r="C1" t="s">
-        <v>130</v>
-      </c>
       <c r="D1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35.25" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
         <v>131</v>
       </c>
-      <c r="C2" t="s">
-        <v>132</v>
-      </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
